--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
@@ -531,34 +531,34 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H2">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N2">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.743527149025667</v>
+        <v>1.260620433770667</v>
       </c>
       <c r="R2">
-        <v>15.691744341231</v>
+        <v>11.345583903936</v>
       </c>
       <c r="S2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="T2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,22 +605,22 @@
         <v>78.478283</v>
       </c>
       <c r="I3">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J3">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N3">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.417703065222334</v>
+        <v>8.86651129257689</v>
       </c>
       <c r="R3">
-        <v>30.75932758700101</v>
+        <v>79.79860163319201</v>
       </c>
       <c r="S3">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="T3">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,28 +661,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H4">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I4">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J4">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N4">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.4774021156683333</v>
+        <v>2.135205217667556</v>
       </c>
       <c r="R4">
-        <v>4.296619041015</v>
+        <v>19.216846959008</v>
       </c>
       <c r="S4">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="T4">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,28 +723,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H5">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I5">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J5">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N5">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>5.272521735812001</v>
+        <v>17.49847699017422</v>
       </c>
       <c r="R5">
-        <v>47.45269562230801</v>
+        <v>157.486292911568</v>
       </c>
       <c r="S5">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="T5">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
     </row>
   </sheetData>
